--- a/template.xlsx
+++ b/template.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Section 1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="inputs" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Section 1" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,42 +21,159 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
-  <si>
-    <t xml:space="preserve">Section #1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Shift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Second Shift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Third Shift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
+  <si>
+    <t xml:space="preserve">Nurse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Shifts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferred Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferred Shift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">علیرضا سام‌پور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پذیرش</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2, 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مهدی حسینی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">البرز محمدی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فاطمه رضایی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3, 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مهدیه حسینوند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عمومی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کیمیا محبی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زهرا قنبری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">احمد متوسلیان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3, 5, 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سجاد جمشیدی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اتاق عمل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حسین فرشیدی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رضا وطن دوست</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کمیل قاسمی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زهره عباسی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محمود احمدی نژاد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عاطفه رییسی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زنان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شادی کریمی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صدف علیزاده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7, 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">علی اسلامی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مراقبت‌های ویژه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سعید پور یوسف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">امیرعلی نعیمی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زهرا صادقی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ساناز موسوی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, 2, 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بخش</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شیفت اول</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شیفت دوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شیفت سوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شنبه</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">Sunday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday</t>
+    <t xml:space="preserve">یک‌شنبه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دوشنبه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سه‌شنبه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">چهارشنبه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پنج‌شنبه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جمعه</t>
   </si>
 </sst>
 </file>
@@ -96,7 +214,6 @@
     <font>
       <b val="true"/>
       <sz val="13"/>
-      <color rgb="FFC9211E"/>
       <name val="Vazir"/>
       <family val="0"/>
       <charset val="1"/>
@@ -104,6 +221,7 @@
     <font>
       <b val="true"/>
       <sz val="13"/>
+      <color rgb="FFC9211E"/>
       <name val="Vazir"/>
       <family val="0"/>
       <charset val="1"/>
@@ -169,7 +287,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -182,11 +300,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -275,10 +397,323 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.08203125" defaultRowHeight="42.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="29.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="15.4"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="10.08"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.08203125" defaultRowHeight="42.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -289,118 +724,118 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
+      <c r="A1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
+      <c r="A2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>5</v>
+      <c r="A3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>5</v>
+      <c r="A4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>5</v>
+      <c r="A5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>5</v>
+      <c r="A6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>5</v>
+      <c r="A7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>5</v>
+      <c r="A8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -408,7 +843,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
